--- a/Data/Result/ResSalarySlip.xlsx
+++ b/Data/Result/ResSalarySlip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>TestId</t>
   </si>
@@ -1026,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
